--- a/ts-ng-Notes.xlsx
+++ b/ts-ng-Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="16440" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11445" tabRatio="813" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ts-notes" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="ES6 vs TS" sheetId="5" r:id="rId6"/>
     <sheet name="Design Decision" sheetId="8" r:id="rId7"/>
     <sheet name="err-sols" sheetId="9" r:id="rId8"/>
+    <sheet name="internet-ref" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="162">
   <si>
     <t>TypeScript</t>
   </si>
@@ -542,12 +543,6 @@
     <t xml:space="preserve">Install Angular CLI </t>
   </si>
   <si>
-    <t xml:space="preserve">Create a new Angular project </t>
-  </si>
-  <si>
-    <t>add a new component</t>
-  </si>
-  <si>
     <t>ng g component my-component</t>
   </si>
   <si>
@@ -596,13 +591,201 @@
   </si>
   <si>
     <t>SOLS</t>
+  </si>
+  <si>
+    <t>You seem to not be depending on "@angular/core". This is an error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1)--You need to run the ng server from the c:\project\angular-src location. Not just the root of your project.
+#2)-- remove package-lock.json, node_modules
+-- npm install
+-- 
+</t>
+  </si>
+  <si>
+    <t>proxy</t>
+  </si>
+  <si>
+    <t>https://github.com/angular/angular-cli/blob/master/docs/documentation/stories/proxy.md</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>can have multiple router-outlet in same template</t>
+  </si>
+  <si>
+    <t>multiple router</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>http://www.gistia.com/angular-router-part-2/</t>
+  </si>
+  <si>
+    <t>jquery to ng</t>
+  </si>
+  <si>
+    <t>$ npm install jquery --save</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.angular-cli.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+"scripts": [
+    "../node_modules/jquery/dist/jquery.min.js",
+    "../node_modules/tether/dist/js/tether.min.js",        
+    "../node_modules/bootstrap/dist/js/bootstrap.min.js"
+]
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">new Angular project </t>
+  </si>
+  <si>
+    <t>new component</t>
+  </si>
+  <si>
+    <t>You cannot use the new command inside an Angular CLI project</t>
+  </si>
+  <si>
+    <t>Uncaught ReferenceError: $ is not defined</t>
+  </si>
+  <si>
+    <t>any thirtparty library, need to be added in typings.d.ts or *.d.ts</t>
+  </si>
+  <si>
+    <t>ag-grid</t>
+  </si>
+  <si>
+    <t>json-typescript-mapper</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1&gt; $npm install json-typescript-mapper --save
+2&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tsconfig.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+"include": [
+  "./src/*",
+  "./node_modules/json-typescript-mapper/libs/utils.ts"
+] 
+3&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>polyfills.ts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+import 'reflect-metadata';
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">npm install ag-grid --save
+npm install ag-grid-angular --save
+</t>
+  </si>
+  <si>
+    <t>not friendly</t>
+  </si>
+  <si>
+    <t>data table, anim, form etc rich UI</t>
+  </si>
+  <si>
+    <t>angular/material @angular/cdk</t>
+  </si>
+  <si>
+    <t>npm install --save @angular/material @angular/cdk
+npm install --save @angular/animations
+npm install --save hammerjs
+//.src/main.ts
+import 'hammerjs';</t>
+  </si>
+  <si>
+    <t>angular/material   - Sort</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+-- SortModule
+-- &lt;mat-table #table [dataSource] = .. matSort&gt;
+-- &lt;mat-header-cell *matHeaderCellDef mat-sort-header&gt;
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -647,6 +830,29 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1021,10 +1227,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1203,6 +1410,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1221,8 +1432,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1540,13 +1758,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>90000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>70000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2833200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>583471</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1593,13 +1811,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>90000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>580000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3198960</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1234881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1646,13 +1864,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>60000</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>60000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2346000</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>285263</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1699,13 +1917,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>70000</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>280000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2356000</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>717902</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1752,13 +1970,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>100000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>50000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2386000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>273630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1805,13 +2023,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>100000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>270001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2843200</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>510905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1858,13 +2076,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>210000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>60001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2953200</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1943109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1911,13 +2129,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>90000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>80001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3564720</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>504204</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1964,13 +2182,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>50001</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>40000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3707601</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>378564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2017,13 +2235,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>90000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>30000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3198960</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>653209</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2070,13 +2288,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>80000</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>60001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2366000</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>692932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2123,13 +2341,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>90000</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>70000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1956400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>783104</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2176,13 +2394,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>100000</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>70000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1966400</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>276384</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2229,13 +2447,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3523826</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>647627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2282,13 +2500,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2742321</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>1621155</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2332,13 +2550,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1733336</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>266676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2385,13 +2603,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2122170</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>1582344</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2438,13 +2656,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2247900</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3553663</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>1592580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2956,7 +3174,7 @@
   <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2983,10 +3201,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3023,10 +3241,10 @@
       <c r="B3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="61"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
@@ -3244,263 +3462,258 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B20" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B21" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="B21" s="48" t="s">
+    <row r="22" spans="1:8" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="B22" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C22" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="49"/>
-    </row>
-    <row r="22" spans="1:8" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="B22" s="49" t="s">
+      <c r="D22" s="49"/>
+    </row>
+    <row r="23" spans="1:8" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="B23" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C23" s="48" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B23" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B24" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C25" s="48" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B25" s="49" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B26" s="49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B27" s="49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B28" s="48" t="s">
+    <row r="28" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B29" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C29" s="48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="46"/>
-    </row>
-    <row r="30" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
       <c r="H30" s="46"/>
     </row>
-    <row r="31" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
+        <v>88</v>
+      </c>
       <c r="B31" s="8" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="9" t="s">
-        <v>94</v>
+      <c r="D31" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="10"/>
       <c r="H31" s="46"/>
     </row>
-    <row r="32" spans="1:8" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="H32" s="46"/>
     </row>
-    <row r="33" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="10"/>
       <c r="H33" s="46"/>
     </row>
-    <row r="34" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="63"/>
+        <v>92</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="H34" s="46"/>
     </row>
-    <row r="35" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>101</v>
-      </c>
+      <c r="C35" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="65"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
       <c r="H35" s="46"/>
     </row>
-    <row r="36" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>102</v>
+      <c r="C36" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>101</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
       <c r="H36" s="46"/>
     </row>
-    <row r="37" spans="1:8" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D38" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
       <c r="G38" s="55"/>
       <c r="H38" s="46"/>
     </row>
-    <row r="39" spans="1:8" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
-      <c r="B39" s="52" t="s">
-        <v>104</v>
-      </c>
+      <c r="B39" s="52"/>
       <c r="C39" s="53"/>
-      <c r="D39" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="65"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
       <c r="G39" s="55"/>
       <c r="H39" s="46"/>
     </row>
-    <row r="40" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="53" t="s">
-        <v>105</v>
-      </c>
+      <c r="C40" s="53"/>
       <c r="D40" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="63"/>
+        <v>107</v>
+      </c>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="55"/>
       <c r="H40" s="46"/>
     </row>
-    <row r="41" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="52" t="s">
         <v>104</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
+        <v>105</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65"/>
       <c r="G41" s="55"/>
       <c r="H41" s="46"/>
     </row>
-    <row r="42" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="52" t="s">
         <v>104</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="54"/>
@@ -3512,22 +3725,24 @@
       <c r="B43" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="56"/>
+      <c r="C43" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>110</v>
+      </c>
       <c r="E43" s="54"/>
       <c r="F43" s="54"/>
       <c r="G43" s="55"/>
       <c r="H43" s="46"/>
     </row>
-    <row r="44" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="52" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D44" s="56"/>
       <c r="E44" s="54"/>
@@ -3535,13 +3750,13 @@
       <c r="G44" s="55"/>
       <c r="H44" s="46"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>115</v>
       </c>
       <c r="D45" s="56"/>
       <c r="E45" s="54"/>
@@ -3551,8 +3766,12 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
+      <c r="B46" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>111</v>
+      </c>
       <c r="D46" s="56"/>
       <c r="E46" s="54"/>
       <c r="F46" s="54"/>
@@ -3589,30 +3808,40 @@
       <c r="G49" s="55"/>
       <c r="H49" s="46"/>
     </row>
-    <row r="50" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="45"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="14"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
       <c r="H50" s="46"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
+    <row r="51" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="45"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E41:F41"/>
     <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E39:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3621,10 +3850,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3637,45 +3866,45 @@
     <col min="6" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B2" s="58" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="51" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="51" x14ac:dyDescent="0.25">
       <c r="B3" s="58" t="s">
         <v>120</v>
       </c>
       <c r="D3" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="E4" s="59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="58" t="s">
         <v>117</v>
       </c>
@@ -3683,12 +3912,70 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D7" s="59" t="s">
         <v>119</v>
       </c>
     </row>
+    <row r="9" spans="2:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="E10" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="68"/>
+    </row>
+    <row r="11" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="69"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C14:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4127,13 +4414,13 @@
   <sheetData>
     <row r="3" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4143,35 +4430,102 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="51.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
+    <row r="5" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ts-ng-Notes.xlsx
+++ b/ts-ng-Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11445" tabRatio="813" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="8505" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="ts-notes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="168">
   <si>
     <t>TypeScript</t>
   </si>
@@ -779,6 +779,28 @@
 -- &lt;mat-header-cell *matHeaderCellDef mat-sort-header&gt;
 </t>
     </r>
+  </si>
+  <si>
+    <t>Decorator</t>
+  </si>
+  <si>
+    <t>Decorator is capable and available from ES7. Type script capable to writing it with latest capability and pollyfill with older version.</t>
+  </si>
+  <si>
+    <t>can be declared on top of 
+-- class
+-- function
+-- variable
+-- parameter</t>
+  </si>
+  <si>
+    <t>Decorator declarative with @ sympol and definition is with simple function</t>
+  </si>
+  <si>
+    <t>Decorator-method</t>
+  </si>
+  <si>
+    <t>class Car { color = "red"; whatColor(){ return this.color</t>
   </si>
 </sst>
 </file>
@@ -2960,7 +2982,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2970,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -3053,28 +3075,42 @@
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="9"/>
+    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9"/>
+    <row r="11" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -3852,7 +3888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/ts-ng-Notes.xlsx
+++ b/ts-ng-Notes.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pradhapganesan/Desktop/pgjava_studydrive/pradhapganesanj-gitrepo/pg-notes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="8505" tabRatio="813"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="813" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ts-notes" sheetId="1" r:id="rId1"/>
@@ -19,6 +24,9 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="183">
   <si>
     <t>TypeScript</t>
   </si>
@@ -533,13 +541,6 @@
     <t>Add Bootstrap 4 to Angular project</t>
   </si>
   <si>
-    <t xml:space="preserve">npm install --save bootstrap@4.0.0-alpha.6
-</t>
-  </si>
-  <si>
-    <t>npm install –save bootstrap@next</t>
-  </si>
-  <si>
     <t xml:space="preserve">Install Angular CLI </t>
   </si>
   <si>
@@ -566,9 +567,6 @@
 npm cache clean</t>
   </si>
   <si>
-    <t>ng new appName</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prerequisites:
 </t>
   </si>
@@ -581,10 +579,6 @@
   </si>
   <si>
     <t>npm cache clean -f</t>
-  </si>
-  <si>
-    <t>$ng new appName --directory ./
-$ng new ng-myproj --skip-install --directory ./ng-myproj</t>
   </si>
   <si>
     <t>ERROR</t>
@@ -802,12 +796,117 @@
   <si>
     <t>class Car { color = "red"; whatColor(){ return this.color</t>
   </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>npm install --save bootstrap@4.0.0-alpha.6
+npm install –save bootstrap@next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npm i bootstrap@4.0.0-beta.2 jquery popper.js --save
+</t>
+  </si>
+  <si>
+    <t>ng new appName
+npm install</t>
+  </si>
+  <si>
+    <t>ng &gt; 2</t>
+  </si>
+  <si>
+    <t>Best Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Module:
+-- should only be included in AppModule
+-- services mostly used accorss features, should be added into Core module
+-- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared Module:
+-- dump like pipes, reusable components (button etc); not to make any service calls because shared modules are imported by all of other modules, multiple time
+-- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Module:
+-- separate independent components into features
+-- services received from Core, components received from Shared
+-- if multiple features interact closely many times then group it together 
+-- </t>
+  </si>
+  <si>
+    <t>import - simple way</t>
+  </si>
+  <si>
+    <t>tsconfig.json
+... "paths": {
+      "@app/*": ["app/*"],
+      "@env/*": ["environments/*"]
+    }</t>
+  </si>
+  <si>
+    <t>import { SomeService } from "@app/core"</t>
+  </si>
+  <si>
+    <t>import - services - simple</t>
+  </si>
+  <si>
+    <t>index.ts (every folder let export)
+export * from './some-singleton-service/some-singleton.service';</t>
+  </si>
+  <si>
+    <t>import { SomeSingletonService } from '@app/core';</t>
+  </si>
+  <si>
+    <t>one project atleast should have
+-- core, shared, feature modules
+Avoid allowing modules in sibling and parent folders to directly import a module in a lazy loaded feature.</t>
+  </si>
+  <si>
+    <t>$ng new appName --directory ./
+$ng new ng-myproj --skip-install --directory ./ng-myproj
+$ ng new myngproj --routing</t>
+  </si>
+  <si>
+    <t>lazy load component. 
+-- recommended to have it own routing.module.ts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ng g module mylazym --flat
+ng g c my-lazy-parent --module mylazym
+ng g c my-lazy-child --module mylazym
+@NgModule({
+  imports: [ CommonModule,
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>RouterModule.forChild(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> routes ) ],</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -874,6 +973,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2727,6 +2833,64 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4661647</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2943412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="84000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-42000" contrast="98000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9009529" y="1314824"/>
+          <a:ext cx="4572000" cy="2868706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2982,7 +3146,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2992,22 +3156,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C8" zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="2"/>
+    <col min="3" max="3" width="46.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -3017,7 +3181,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -3027,7 +3191,7 @@
       </c>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>36</v>
       </c>
@@ -3035,7 +3199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -3047,7 +3211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -3056,7 +3220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="190" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
         <v>4</v>
@@ -3065,7 +3229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
@@ -3075,15 +3239,15 @@
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -3091,15 +3255,15 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -3107,9 +3271,9 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
@@ -3119,7 +3283,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
@@ -3129,7 +3293,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
@@ -3139,7 +3303,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9"/>
@@ -3149,7 +3313,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
@@ -3159,7 +3323,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9"/>
@@ -3169,7 +3333,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
@@ -3179,7 +3343,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
@@ -3189,7 +3353,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
@@ -3213,16 +3377,16 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3239,22 +3403,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="35" style="2" customWidth="1"/>
     <col min="5" max="5" width="47.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="50" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="2"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
@@ -3262,7 +3426,7 @@
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="45"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -3272,7 +3436,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="46"/>
     </row>
-    <row r="3" spans="1:8" ht="137.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="137" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="8" t="s">
         <v>66</v>
@@ -3286,7 +3450,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="46"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="45"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
@@ -3296,7 +3460,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="46"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="45"/>
       <c r="B5" s="8"/>
       <c r="C5" s="7"/>
@@ -3306,7 +3470,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="46"/>
     </row>
-    <row r="6" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.2">
       <c r="A6" s="45"/>
       <c r="B6" s="8" t="s">
         <v>68</v>
@@ -3326,7 +3490,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="46"/>
     </row>
-    <row r="7" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="8" t="s">
         <v>72</v>
@@ -3342,7 +3506,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="46"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="45"/>
       <c r="B8" s="8" t="s">
         <v>72</v>
@@ -3358,7 +3522,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="46"/>
     </row>
-    <row r="9" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="8" t="s">
         <v>68</v>
@@ -3374,7 +3538,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="46"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
@@ -3384,7 +3548,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="46"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="45"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
@@ -3394,7 +3558,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="46"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="45"/>
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
@@ -3404,7 +3568,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="46"/>
     </row>
-    <row r="13" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="8" t="s">
         <v>79</v>
@@ -3420,7 +3584,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="46"/>
     </row>
-    <row r="14" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="45"/>
       <c r="B14" s="8" t="s">
         <v>79</v>
@@ -3436,7 +3600,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="46"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
@@ -3446,7 +3610,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="46"/>
     </row>
-    <row r="16" spans="1:8" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
       <c r="B16" s="8" t="s">
         <v>84</v>
@@ -3462,7 +3626,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="46"/>
     </row>
-    <row r="17" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="8" t="s">
         <v>84</v>
@@ -3478,7 +3642,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="B18" s="48" t="s">
         <v>12</v>
       </c>
@@ -3487,7 +3651,7 @@
       </c>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="1:8" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="B19" s="48" t="s">
         <v>19</v>
       </c>
@@ -3498,18 +3662,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="48" t="s">
         <v>22</v>
       </c>
@@ -3518,7 +3682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="B22" s="48" t="s">
         <v>32</v>
       </c>
@@ -3527,7 +3691,7 @@
       </c>
       <c r="D22" s="49"/>
     </row>
-    <row r="23" spans="1:8" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B23" s="49" t="s">
         <v>23</v>
       </c>
@@ -3535,7 +3699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="48" t="s">
         <v>28</v>
       </c>
@@ -3543,7 +3707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="48" t="s">
         <v>30</v>
       </c>
@@ -3551,18 +3715,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="48" t="s">
         <v>34</v>
       </c>
@@ -3570,7 +3734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="45"/>
       <c r="B30" s="8"/>
       <c r="C30" s="7"/>
@@ -3580,7 +3744,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="46"/>
     </row>
-    <row r="31" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
         <v>88</v>
       </c>
@@ -3596,7 +3760,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="46"/>
     </row>
-    <row r="32" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="45"/>
       <c r="B32" s="8" t="s">
         <v>90</v>
@@ -3610,7 +3774,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="46"/>
     </row>
-    <row r="33" spans="1:8" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="B33" s="8" t="s">
         <v>91</v>
@@ -3624,7 +3788,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="46"/>
     </row>
-    <row r="34" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="8" t="s">
         <v>92</v>
@@ -3638,7 +3802,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="46"/>
     </row>
-    <row r="35" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="8" t="s">
         <v>96</v>
@@ -3652,7 +3816,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="46"/>
     </row>
-    <row r="36" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="8" t="s">
         <v>96</v>
@@ -3668,7 +3832,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="46"/>
     </row>
-    <row r="37" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="8" t="s">
         <v>96</v>
@@ -3684,7 +3848,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="46"/>
     </row>
-    <row r="38" spans="1:8" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="45"/>
       <c r="B38" s="52" t="s">
         <v>96</v>
@@ -3700,7 +3864,7 @@
       <c r="G38" s="55"/>
       <c r="H38" s="46"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="52"/>
       <c r="C39" s="53"/>
@@ -3710,7 +3874,7 @@
       <c r="G39" s="55"/>
       <c r="H39" s="46"/>
     </row>
-    <row r="40" spans="1:8" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="52" t="s">
         <v>104</v>
@@ -3724,7 +3888,7 @@
       <c r="G40" s="55"/>
       <c r="H40" s="46"/>
     </row>
-    <row r="41" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
       <c r="B41" s="52" t="s">
         <v>104</v>
@@ -3740,7 +3904,7 @@
       <c r="G41" s="55"/>
       <c r="H41" s="46"/>
     </row>
-    <row r="42" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="72" x14ac:dyDescent="0.2">
       <c r="A42" s="45"/>
       <c r="B42" s="52" t="s">
         <v>104</v>
@@ -3756,7 +3920,7 @@
       <c r="G42" s="55"/>
       <c r="H42" s="46"/>
     </row>
-    <row r="43" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="52" t="s">
         <v>104</v>
@@ -3772,7 +3936,7 @@
       <c r="G43" s="55"/>
       <c r="H43" s="46"/>
     </row>
-    <row r="44" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="52" t="s">
         <v>104</v>
@@ -3786,7 +3950,7 @@
       <c r="G44" s="55"/>
       <c r="H44" s="46"/>
     </row>
-    <row r="45" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="52" t="s">
         <v>114</v>
@@ -3800,7 +3964,7 @@
       <c r="G45" s="55"/>
       <c r="H45" s="46"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="52" t="s">
         <v>84</v>
@@ -3814,7 +3978,7 @@
       <c r="G46" s="55"/>
       <c r="H46" s="46"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
       <c r="B47" s="52"/>
       <c r="C47" s="53"/>
@@ -3824,7 +3988,7 @@
       <c r="G47" s="55"/>
       <c r="H47" s="46"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="45"/>
       <c r="B48" s="52"/>
       <c r="C48" s="53"/>
@@ -3834,7 +3998,7 @@
       <c r="G48" s="55"/>
       <c r="H48" s="46"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
       <c r="B49" s="52"/>
       <c r="C49" s="53"/>
@@ -3844,7 +4008,7 @@
       <c r="G49" s="55"/>
       <c r="H49" s="46"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="52"/>
       <c r="C50" s="53"/>
@@ -3854,7 +4018,7 @@
       <c r="G50" s="55"/>
       <c r="H50" s="46"/>
     </row>
-    <row r="51" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
@@ -3864,7 +4028,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="46"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
@@ -3886,131 +4050,205 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F14"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="58"/>
-    <col min="2" max="2" width="29.5" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="58" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.5" style="59" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="58"/>
+    <col min="1" max="2" width="8.83203125" style="58"/>
+    <col min="3" max="3" width="29.5" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="58" customWidth="1"/>
+    <col min="5" max="5" width="38.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5" style="59" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="58" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
-        <v>128</v>
+    <row r="2" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="58">
+        <v>0</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="59" t="s">
         <v>125</v>
       </c>
+      <c r="D2" s="58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="58">
+        <v>1</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>118</v>
+      </c>
       <c r="E3" s="59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="58">
+        <v>3</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>143</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="58">
+        <v>4</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="58">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="68"/>
+    </row>
+    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="58">
+        <v>5</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="68"/>
+    </row>
+    <row r="11" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="61"/>
+      <c r="F11" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="68"/>
+    </row>
+    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C12" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="68"/>
-    </row>
-    <row r="10" spans="2:6" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="58" t="s">
+      <c r="D12" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="84" x14ac:dyDescent="0.2">
+      <c r="C14" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="68"/>
-    </row>
-    <row r="11" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="58" t="s">
+      <c r="F14" s="59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="E11" s="59" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="58" t="s">
+      <c r="D15" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="69"/>
+      <c r="E15" s="69"/>
+    </row>
+    <row r="16" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+      <c r="C16" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="C17" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C14:D14"/>
+  <mergeCells count="5">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4025,7 +4263,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -4060,27 +4298,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="21" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="21" customWidth="1"/>
     <col min="4" max="4" width="39" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="21"/>
+    <col min="6" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -4088,7 +4326,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="28"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="29"/>
       <c r="C3" s="30" t="s">
@@ -4102,7 +4340,7 @@
       </c>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
       <c r="B4" s="33"/>
       <c r="C4" s="34"/>
@@ -4110,7 +4348,7 @@
       <c r="E4" s="36"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A5" s="23"/>
       <c r="B5" s="33" t="s">
         <v>41</v>
@@ -4126,7 +4364,7 @@
       </c>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
       <c r="B6" s="33" t="s">
         <v>43</v>
@@ -4140,7 +4378,7 @@
       </c>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="33" t="s">
         <v>44</v>
@@ -4156,7 +4394,7 @@
       </c>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="33" t="s">
         <v>46</v>
@@ -4172,7 +4410,7 @@
       </c>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="B9" s="33" t="s">
         <v>45</v>
@@ -4188,7 +4426,7 @@
       </c>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:6" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="108" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="B10" s="33" t="s">
         <v>50</v>
@@ -4204,7 +4442,7 @@
       </c>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="33" t="s">
         <v>51</v>
@@ -4220,7 +4458,7 @@
       </c>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="33" t="s">
         <v>64</v>
@@ -4236,7 +4474,7 @@
       </c>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
@@ -4244,7 +4482,7 @@
       <c r="E13" s="36"/>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
@@ -4252,7 +4490,7 @@
       <c r="E14" s="36"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
@@ -4260,7 +4498,7 @@
       <c r="E15" s="36"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
@@ -4268,7 +4506,7 @@
       <c r="E16" s="36"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
@@ -4276,7 +4514,7 @@
       <c r="E17" s="36"/>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
@@ -4284,7 +4522,7 @@
       <c r="E18" s="36"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
       <c r="B19" s="33"/>
       <c r="C19" s="34"/>
@@ -4292,7 +4530,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="33"/>
       <c r="C20" s="34"/>
@@ -4300,7 +4538,7 @@
       <c r="E20" s="36"/>
       <c r="F20" s="28"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="33"/>
       <c r="C21" s="34"/>
@@ -4308,7 +4546,7 @@
       <c r="E21" s="36"/>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="33"/>
       <c r="C22" s="34"/>
@@ -4316,7 +4554,7 @@
       <c r="E22" s="36"/>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="33"/>
       <c r="C23" s="34"/>
@@ -4324,7 +4562,7 @@
       <c r="E23" s="36"/>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="33"/>
       <c r="C24" s="34"/>
@@ -4332,7 +4570,7 @@
       <c r="E24" s="36"/>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="33"/>
       <c r="C25" s="34"/>
@@ -4340,7 +4578,7 @@
       <c r="E25" s="36"/>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="33"/>
       <c r="C26" s="34"/>
@@ -4348,7 +4586,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="33"/>
       <c r="C27" s="34"/>
@@ -4356,7 +4594,7 @@
       <c r="E27" s="36"/>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="33"/>
       <c r="C28" s="34"/>
@@ -4364,7 +4602,7 @@
       <c r="E28" s="36"/>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
       <c r="B29" s="33"/>
       <c r="C29" s="34"/>
@@ -4372,7 +4610,7 @@
       <c r="E29" s="36"/>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
       <c r="B30" s="33"/>
       <c r="C30" s="34"/>
@@ -4380,7 +4618,7 @@
       <c r="E30" s="36"/>
       <c r="F30" s="28"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="33"/>
       <c r="C31" s="34"/>
@@ -4388,7 +4626,7 @@
       <c r="E31" s="36"/>
       <c r="F31" s="28"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="33"/>
       <c r="C32" s="34"/>
@@ -4396,7 +4634,7 @@
       <c r="E32" s="36"/>
       <c r="F32" s="28"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="33"/>
       <c r="C33" s="34"/>
@@ -4404,7 +4642,7 @@
       <c r="E33" s="36"/>
       <c r="F33" s="28"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="B34" s="33"/>
       <c r="C34" s="34"/>
@@ -4412,7 +4650,7 @@
       <c r="E34" s="36"/>
       <c r="F34" s="28"/>
     </row>
-    <row r="35" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="39"/>
       <c r="C35" s="40"/>
@@ -4420,7 +4658,7 @@
       <c r="E35" s="42"/>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
@@ -4433,34 +4671,62 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D3"/>
+  <dimension ref="B3:F6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="69.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>124</v>
+    </row>
+    <row r="5" spans="2:6" ht="236" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4472,49 +4738,49 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="51.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="49.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="C4" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4530,31 +4796,31 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>139</v>
-      </c>
-      <c r="C6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/ts-ng-Notes.xlsx
+++ b/ts-ng-Notes.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pradhapganesan/Desktop/pgjava_studydrive/pradhapganesanj-gitrepo/pg-notes/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="813" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15120" windowHeight="6720" tabRatio="813" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ts-notes" sheetId="1" r:id="rId1"/>
@@ -24,9 +19,6 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="187">
   <si>
     <t>TypeScript</t>
   </si>
@@ -556,9 +548,6 @@
   </si>
   <si>
     <t>when application going with many flows… like many new urls… many new services.. Folder structure going to be very vague</t>
-  </si>
-  <si>
-    <t>npm install -g @angular/cli</t>
   </si>
   <si>
     <t>npm uninstall -g angular-cli
@@ -900,6 +889,34 @@
       </rPr>
       <t xml:space="preserve"> routes ) ],</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"/api" :{
+        "target" : "http://localhost:8080",
+        "secure" : false,
+        "pathRewrite": {
+           "^/api": ""
+          }        
+        },
+        "logLevel": "debug"
+}
+</t>
+  </si>
+  <si>
+    <t>proxy config - pathrewrite</t>
+  </si>
+  <si>
+    <t>"include": [
+        "src/**/*"
+    ],</t>
+  </si>
+  <si>
+    <t>.module.ts is missing from the TypeScript compilation. Please make sure it is in your tsconfig via the 'files' or 'include' property.</t>
+  </si>
+  <si>
+    <t>npm install -g @angular/cli
+npm install --save-dev @angular/cli</t>
   </si>
 </sst>
 </file>
@@ -3146,7 +3163,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3160,18 +3177,18 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.1640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="46.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -3181,7 +3198,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8" t="s">
         <v>0</v>
@@ -3191,7 +3208,7 @@
       </c>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>36</v>
       </c>
@@ -3199,7 +3216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
         <v>7</v>
@@ -3211,7 +3228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -3220,7 +3237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="190" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
         <v>4</v>
@@ -3229,7 +3246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
@@ -3239,15 +3256,15 @@
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -3255,15 +3272,15 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -3271,9 +3288,9 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
@@ -3283,7 +3300,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
@@ -3293,7 +3310,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9"/>
@@ -3303,7 +3320,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9"/>
@@ -3313,7 +3330,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9"/>
@@ -3323,7 +3340,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9"/>
@@ -3333,7 +3350,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9"/>
@@ -3343,7 +3360,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9"/>
@@ -3353,7 +3370,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
@@ -3377,16 +3394,16 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3407,18 +3424,18 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="35" style="2" customWidth="1"/>
     <col min="5" max="5" width="47.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="50" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="7" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
@@ -3426,7 +3443,7 @@
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -3436,7 +3453,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="46"/>
     </row>
-    <row r="3" spans="1:8" ht="137" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="137.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="8" t="s">
         <v>66</v>
@@ -3450,7 +3467,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="46"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
@@ -3460,7 +3477,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="46"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="8"/>
       <c r="C5" s="7"/>
@@ -3470,7 +3487,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="46"/>
     </row>
-    <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
       <c r="B6" s="8" t="s">
         <v>68</v>
@@ -3490,7 +3507,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="46"/>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="8" t="s">
         <v>72</v>
@@ -3506,7 +3523,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="46"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="8" t="s">
         <v>72</v>
@@ -3522,7 +3539,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="46"/>
     </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="8" t="s">
         <v>68</v>
@@ -3538,7 +3555,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="46"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
@@ -3548,7 +3565,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="46"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
@@ -3558,7 +3575,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="46"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
@@ -3568,7 +3585,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="46"/>
     </row>
-    <row r="13" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="8" t="s">
         <v>79</v>
@@ -3584,7 +3601,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="46"/>
     </row>
-    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="8" t="s">
         <v>79</v>
@@ -3600,7 +3617,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="46"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
@@ -3610,7 +3627,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="46"/>
     </row>
-    <row r="16" spans="1:8" ht="127" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="126.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="8" t="s">
         <v>84</v>
@@ -3626,7 +3643,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="46"/>
     </row>
-    <row r="17" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="8" t="s">
         <v>84</v>
@@ -3642,7 +3659,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="48" t="s">
         <v>12</v>
       </c>
@@ -3651,7 +3668,7 @@
       </c>
       <c r="D18" s="49"/>
     </row>
-    <row r="19" spans="1:8" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="B19" s="48" t="s">
         <v>19</v>
       </c>
@@ -3662,18 +3679,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B20" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B21" s="48" t="s">
         <v>22</v>
       </c>
@@ -3682,7 +3699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="s">
         <v>32</v>
       </c>
@@ -3691,7 +3708,7 @@
       </c>
       <c r="D22" s="49"/>
     </row>
-    <row r="23" spans="1:8" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B23" s="49" t="s">
         <v>23</v>
       </c>
@@ -3699,7 +3716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B24" s="48" t="s">
         <v>28</v>
       </c>
@@ -3707,7 +3724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B25" s="48" t="s">
         <v>30</v>
       </c>
@@ -3715,18 +3732,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B26" s="49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B27" s="49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" s="48" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="s">
         <v>34</v>
       </c>
@@ -3734,7 +3751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="8"/>
       <c r="C30" s="7"/>
@@ -3744,7 +3761,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="46"/>
     </row>
-    <row r="31" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>88</v>
       </c>
@@ -3760,7 +3777,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="46"/>
     </row>
-    <row r="32" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="8" t="s">
         <v>90</v>
@@ -3774,7 +3791,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="46"/>
     </row>
-    <row r="33" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="8" t="s">
         <v>91</v>
@@ -3788,7 +3805,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="46"/>
     </row>
-    <row r="34" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="8" t="s">
         <v>92</v>
@@ -3802,7 +3819,7 @@
       <c r="G34" s="10"/>
       <c r="H34" s="46"/>
     </row>
-    <row r="35" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="8" t="s">
         <v>96</v>
@@ -3816,7 +3833,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="46"/>
     </row>
-    <row r="36" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="8" t="s">
         <v>96</v>
@@ -3832,7 +3849,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="46"/>
     </row>
-    <row r="37" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="8" t="s">
         <v>96</v>
@@ -3848,7 +3865,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="46"/>
     </row>
-    <row r="38" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="52" t="s">
         <v>96</v>
@@ -3864,7 +3881,7 @@
       <c r="G38" s="55"/>
       <c r="H38" s="46"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="52"/>
       <c r="C39" s="53"/>
@@ -3874,7 +3891,7 @@
       <c r="G39" s="55"/>
       <c r="H39" s="46"/>
     </row>
-    <row r="40" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="52" t="s">
         <v>104</v>
@@ -3888,7 +3905,7 @@
       <c r="G40" s="55"/>
       <c r="H40" s="46"/>
     </row>
-    <row r="41" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="52" t="s">
         <v>104</v>
@@ -3904,7 +3921,7 @@
       <c r="G41" s="55"/>
       <c r="H41" s="46"/>
     </row>
-    <row r="42" spans="1:8" ht="72" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="52" t="s">
         <v>104</v>
@@ -3920,7 +3937,7 @@
       <c r="G42" s="55"/>
       <c r="H42" s="46"/>
     </row>
-    <row r="43" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="52" t="s">
         <v>104</v>
@@ -3936,7 +3953,7 @@
       <c r="G43" s="55"/>
       <c r="H43" s="46"/>
     </row>
-    <row r="44" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="52" t="s">
         <v>104</v>
@@ -3950,7 +3967,7 @@
       <c r="G44" s="55"/>
       <c r="H44" s="46"/>
     </row>
-    <row r="45" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="52" t="s">
         <v>114</v>
@@ -3964,7 +3981,7 @@
       <c r="G45" s="55"/>
       <c r="H45" s="46"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="52" t="s">
         <v>84</v>
@@ -3978,7 +3995,7 @@
       <c r="G46" s="55"/>
       <c r="H46" s="46"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="52"/>
       <c r="C47" s="53"/>
@@ -3988,7 +4005,7 @@
       <c r="G47" s="55"/>
       <c r="H47" s="46"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="52"/>
       <c r="C48" s="53"/>
@@ -3998,7 +4015,7 @@
       <c r="G48" s="55"/>
       <c r="H48" s="46"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="52"/>
       <c r="C49" s="53"/>
@@ -4008,7 +4025,7 @@
       <c r="G49" s="55"/>
       <c r="H49" s="46"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="45"/>
       <c r="B50" s="52"/>
       <c r="C50" s="53"/>
@@ -4018,7 +4035,7 @@
       <c r="G50" s="55"/>
       <c r="H50" s="46"/>
     </row>
-    <row r="51" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12"/>
@@ -4028,7 +4045,7 @@
       <c r="G51" s="14"/>
       <c r="H51" s="46"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
@@ -4050,40 +4067,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="58"/>
+    <col min="1" max="2" width="8.875" style="58"/>
     <col min="3" max="3" width="29.5" style="58" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.5" style="58" customWidth="1"/>
     <col min="5" max="5" width="38.5" style="59" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.5" style="59" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" style="58" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="58"/>
+    <col min="7" max="7" width="40.375" style="58" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="58">
         <v>0</v>
       </c>
       <c r="C2" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="58">
         <v>1</v>
@@ -4092,62 +4109,62 @@
         <v>118</v>
       </c>
       <c r="E3" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="58">
         <v>3</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G4" s="68"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="58">
         <v>4</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="59" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="117.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="58">
         <v>4.0999999999999996</v>
       </c>
       <c r="C6" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="68" t="s">
-        <v>182</v>
-      </c>
       <c r="F6" s="68"/>
     </row>
-    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="58">
         <v>5</v>
@@ -4156,90 +4173,98 @@
         <v>117</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="F10" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="68" t="s">
-        <v>142</v>
-      </c>
       <c r="G10" s="68"/>
     </row>
-    <row r="11" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="68"/>
+    </row>
+    <row r="12" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="C12" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="68"/>
-    </row>
-    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="C12" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="58" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="59" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="84" x14ac:dyDescent="0.2">
-      <c r="C14" s="58" t="s">
+      <c r="F14" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="59" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="58" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="58" t="s">
+      <c r="D15" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="69" t="s">
-        <v>157</v>
-      </c>
       <c r="E15" s="69"/>
     </row>
-    <row r="16" spans="1:7" ht="70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="C16" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="G16" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="58" t="s">
+    </row>
+    <row r="17" spans="3:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="58" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="C17" s="58" t="s">
+      <c r="F17" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="G17" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="58" t="s">
-        <v>178</v>
+    </row>
+    <row r="18" spans="3:7" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="C18" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4263,7 +4288,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -4302,23 +4327,23 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="21" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="21" customWidth="1"/>
     <col min="4" max="4" width="39" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="21"/>
+    <col min="6" max="16384" width="10.875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
@@ -4326,7 +4351,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="28"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="29"/>
       <c r="C3" s="30" t="s">
@@ -4340,7 +4365,7 @@
       </c>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="33"/>
       <c r="C4" s="34"/>
@@ -4348,7 +4373,7 @@
       <c r="E4" s="36"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="33" t="s">
         <v>41</v>
@@ -4364,7 +4389,7 @@
       </c>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="33" t="s">
         <v>43</v>
@@ -4378,7 +4403,7 @@
       </c>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="33" t="s">
         <v>44</v>
@@ -4394,7 +4419,7 @@
       </c>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="33" t="s">
         <v>46</v>
@@ -4410,7 +4435,7 @@
       </c>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="33" t="s">
         <v>45</v>
@@ -4426,7 +4451,7 @@
       </c>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:6" ht="108" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="33" t="s">
         <v>50</v>
@@ -4442,7 +4467,7 @@
       </c>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="33" t="s">
         <v>51</v>
@@ -4458,7 +4483,7 @@
       </c>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="33" t="s">
         <v>64</v>
@@ -4474,7 +4499,7 @@
       </c>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
@@ -4482,7 +4507,7 @@
       <c r="E13" s="36"/>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
@@ -4490,7 +4515,7 @@
       <c r="E14" s="36"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
@@ -4498,7 +4523,7 @@
       <c r="E15" s="36"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
@@ -4506,7 +4531,7 @@
       <c r="E16" s="36"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
@@ -4514,7 +4539,7 @@
       <c r="E17" s="36"/>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
@@ -4522,7 +4547,7 @@
       <c r="E18" s="36"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="33"/>
       <c r="C19" s="34"/>
@@ -4530,7 +4555,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="33"/>
       <c r="C20" s="34"/>
@@ -4538,7 +4563,7 @@
       <c r="E20" s="36"/>
       <c r="F20" s="28"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="33"/>
       <c r="C21" s="34"/>
@@ -4546,7 +4571,7 @@
       <c r="E21" s="36"/>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="33"/>
       <c r="C22" s="34"/>
@@ -4554,7 +4579,7 @@
       <c r="E22" s="36"/>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="33"/>
       <c r="C23" s="34"/>
@@ -4562,7 +4587,7 @@
       <c r="E23" s="36"/>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="33"/>
       <c r="C24" s="34"/>
@@ -4570,7 +4595,7 @@
       <c r="E24" s="36"/>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="33"/>
       <c r="C25" s="34"/>
@@ -4578,7 +4603,7 @@
       <c r="E25" s="36"/>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="33"/>
       <c r="C26" s="34"/>
@@ -4586,7 +4611,7 @@
       <c r="E26" s="36"/>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="33"/>
       <c r="C27" s="34"/>
@@ -4594,7 +4619,7 @@
       <c r="E27" s="36"/>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="33"/>
       <c r="C28" s="34"/>
@@ -4602,7 +4627,7 @@
       <c r="E28" s="36"/>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="33"/>
       <c r="C29" s="34"/>
@@ -4610,7 +4635,7 @@
       <c r="E29" s="36"/>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="33"/>
       <c r="C30" s="34"/>
@@ -4618,7 +4643,7 @@
       <c r="E30" s="36"/>
       <c r="F30" s="28"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="33"/>
       <c r="C31" s="34"/>
@@ -4626,7 +4651,7 @@
       <c r="E31" s="36"/>
       <c r="F31" s="28"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="33"/>
       <c r="C32" s="34"/>
@@ -4634,7 +4659,7 @@
       <c r="E32" s="36"/>
       <c r="F32" s="28"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="33"/>
       <c r="C33" s="34"/>
@@ -4642,7 +4667,7 @@
       <c r="E33" s="36"/>
       <c r="F33" s="28"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="33"/>
       <c r="C34" s="34"/>
@@ -4650,7 +4675,7 @@
       <c r="E34" s="36"/>
       <c r="F34" s="28"/>
     </row>
-    <row r="35" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="39"/>
       <c r="C35" s="40"/>
@@ -4658,7 +4683,7 @@
       <c r="E35" s="42"/>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
@@ -4677,18 +4702,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="69.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="63.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="73.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="69.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="63.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>120</v>
       </c>
@@ -4699,29 +4724,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="236" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="236.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4732,55 +4757,63 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="51.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="49.375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>147</v>
+    </row>
+    <row r="7" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4796,31 +4829,31 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>133</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>138</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/ts-ng-Notes.xlsx
+++ b/ts-ng-Notes.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pg38446\Tech\Code Practice\git.pradhapganesanj\pg-notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="15120" windowHeight="6720" tabRatio="813" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15120" windowHeight="6720" tabRatio="813" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ts-notes" sheetId="1" r:id="rId1"/>
     <sheet name="ts-examples" sheetId="3" r:id="rId2"/>
     <sheet name="ng4-notes" sheetId="6" r:id="rId3"/>
     <sheet name="ng4-proj" sheetId="7" r:id="rId4"/>
-    <sheet name="x vs y" sheetId="4" r:id="rId5"/>
-    <sheet name="ES6 vs TS" sheetId="5" r:id="rId6"/>
-    <sheet name="Design Decision" sheetId="8" r:id="rId7"/>
-    <sheet name="err-sols" sheetId="9" r:id="rId8"/>
-    <sheet name="internet-ref" sheetId="10" r:id="rId9"/>
+    <sheet name="ng-xmple" sheetId="11" r:id="rId5"/>
+    <sheet name="x vs y" sheetId="4" r:id="rId6"/>
+    <sheet name="ES6 vs TS" sheetId="5" r:id="rId7"/>
+    <sheet name="Design Decision" sheetId="8" r:id="rId8"/>
+    <sheet name="err-sols" sheetId="9" r:id="rId9"/>
+    <sheet name="internet-ref" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="189">
   <si>
     <t>TypeScript</t>
   </si>
@@ -918,11 +924,17 @@
     <t>npm install -g @angular/cli
 npm install --save-dev @angular/cli</t>
   </si>
+  <si>
+    <t>Session Management</t>
+  </si>
+  <si>
+    <t>Localization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1593,6 +1605,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3163,7 +3178,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3386,6 +3401,50 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C2"/>
@@ -4069,7 +4128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
@@ -4282,6 +4341,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4319,7 +4406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
@@ -4694,7 +4781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F6"/>
   <sheetViews>
@@ -4755,7 +4842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C7"/>
   <sheetViews>
@@ -4819,48 +4906,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ts-ng-Notes.xlsx
+++ b/ts-ng-Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="15120" windowHeight="6720" tabRatio="813" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15120" windowHeight="6720" tabRatio="813" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ts-notes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="190">
   <si>
     <t>TypeScript</t>
   </si>
@@ -929,6 +929,9 @@
   </si>
   <si>
     <t>Localization</t>
+  </si>
+  <si>
+    <t>remove .angular-cli.json, package.json, package-lock.json from the directory you are trying to run the commands from. Note: Make sure to make hidden file visible first.</t>
   </si>
 </sst>
 </file>
@@ -3479,7 +3482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -4128,7 +4131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
@@ -4343,7 +4346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4846,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4882,9 +4885,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>144</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
